--- a/forecast_summary_B0BZQ1TNW8.xlsx
+++ b/forecast_summary_B0BZQ1TNW8.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,11 @@
           <t>Product Title</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -488,7 +493,7 @@
         <v>56.90267707914374</v>
       </c>
       <c r="D2" t="n">
-        <v>98.87366327224109</v>
+        <v>99.76098023014441</v>
       </c>
       <c r="E2" t="n">
         <v>160</v>
@@ -511,6 +516,9 @@
         <is>
           <t>B550M AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -524,7 +532,7 @@
         <v>25.15026402827092</v>
       </c>
       <c r="D3" t="n">
-        <v>71.02869448544858</v>
+        <v>70.41603621360764</v>
       </c>
       <c r="E3" t="n">
         <v>97</v>
@@ -547,6 +555,9 @@
         <is>
           <t>B550M AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -560,7 +571,7 @@
         <v>50.90558853360508</v>
       </c>
       <c r="D4" t="n">
-        <v>95.34792241802671</v>
+        <v>95.53020361283104</v>
       </c>
       <c r="E4" t="n">
         <v>105</v>
@@ -583,6 +594,9 @@
         <is>
           <t>B550M AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -596,7 +610,7 @@
         <v>121.2485547440396</v>
       </c>
       <c r="D5" t="n">
-        <v>164.5215878214993</v>
+        <v>168.1380878482148</v>
       </c>
       <c r="E5" t="n">
         <v>86</v>
@@ -619,6 +633,9 @@
         <is>
           <t>B550M AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,7 +649,7 @@
         <v>188.9286716621089</v>
       </c>
       <c r="D6" t="n">
-        <v>235.5732042250787</v>
+        <v>234.945872643672</v>
       </c>
       <c r="E6" t="n">
         <v>87</v>
@@ -655,6 +672,9 @@
         <is>
           <t>B550M AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -668,7 +688,7 @@
         <v>214.7127082654498</v>
       </c>
       <c r="D7" t="n">
-        <v>260.2033380812296</v>
+        <v>258.9553455527659</v>
       </c>
       <c r="E7" t="n">
         <v>88</v>
@@ -691,6 +711,9 @@
         <is>
           <t>B550M AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -704,7 +727,7 @@
         <v>200.0484412263359</v>
       </c>
       <c r="D8" t="n">
-        <v>243.1841547945453</v>
+        <v>242.361141207579</v>
       </c>
       <c r="E8" t="n">
         <v>87</v>
@@ -727,6 +750,9 @@
         <is>
           <t>B550M AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -740,7 +766,7 @@
         <v>179.2219636261128</v>
       </c>
       <c r="D9" t="n">
-        <v>222.2852880031094</v>
+        <v>222.8520487085445</v>
       </c>
       <c r="E9" t="n">
         <v>86</v>
@@ -763,6 +789,9 @@
         <is>
           <t>B550M AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -770,13 +799,13 @@
         <v>45683</v>
       </c>
       <c r="B10" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C10" t="n">
         <v>183.1904656222019</v>
       </c>
       <c r="D10" t="n">
-        <v>230.0314341146683</v>
+        <v>225.8155203305697</v>
       </c>
       <c r="E10" t="n">
         <v>87</v>
@@ -799,6 +828,9 @@
         <is>
           <t>B550M AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -806,13 +838,13 @@
         <v>45690</v>
       </c>
       <c r="B11" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C11" t="n">
         <v>214.1356279997237</v>
       </c>
       <c r="D11" t="n">
-        <v>260.6648901409812</v>
+        <v>256.9974306896536</v>
       </c>
       <c r="E11" t="n">
         <v>127</v>
@@ -835,6 +867,9 @@
         <is>
           <t>B550M AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -848,7 +883,7 @@
         <v>252.3962060664352</v>
       </c>
       <c r="D12" t="n">
-        <v>297.7618560643691</v>
+        <v>297.043045867995</v>
       </c>
       <c r="E12" t="n">
         <v>147</v>
@@ -871,6 +906,9 @@
         <is>
           <t>B550M AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -884,7 +922,7 @@
         <v>279.6596732700173</v>
       </c>
       <c r="D13" t="n">
-        <v>324.1210840190643</v>
+        <v>323.5429319689135</v>
       </c>
       <c r="E13" t="n">
         <v>144</v>
@@ -907,6 +945,9 @@
         <is>
           <t>B550M AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -920,7 +961,7 @@
         <v>289.449308432748</v>
       </c>
       <c r="D14" t="n">
-        <v>332.347784053584</v>
+        <v>333.558645571054</v>
       </c>
       <c r="E14" t="n">
         <v>144</v>
@@ -943,6 +984,9 @@
         <is>
           <t>B550M AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -956,7 +1000,7 @@
         <v>279.4688486846409</v>
       </c>
       <c r="D15" t="n">
-        <v>325.2087385250347</v>
+        <v>323.9353462255671</v>
       </c>
       <c r="E15" t="n">
         <v>140</v>
@@ -979,6 +1023,9 @@
         <is>
           <t>B550M AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -992,7 +1039,7 @@
         <v>245.9451540144876</v>
       </c>
       <c r="D16" t="n">
-        <v>286.6065812068297</v>
+        <v>289.2279342942131</v>
       </c>
       <c r="E16" t="n">
         <v>135</v>
@@ -1015,6 +1062,9 @@
         <is>
           <t>B550M AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1028,7 +1078,7 @@
         <v>193.4550580213609</v>
       </c>
       <c r="D17" t="n">
-        <v>234.1716333698296</v>
+        <v>238.4703251811102</v>
       </c>
       <c r="E17" t="n">
         <v>135</v>
@@ -1051,6 +1101,9 @@
         <is>
           <t>B550M AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1064,7 +1117,7 @@
         <v>145.4211090734244</v>
       </c>
       <c r="D18" t="n">
-        <v>190.9018937963854</v>
+        <v>190.32383402202</v>
       </c>
       <c r="E18" t="n">
         <v>119</v>
@@ -1087,6 +1140,9 @@
         <is>
           <t>B550M AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1100,7 +1156,7 @@
         <v>131.945503412789</v>
       </c>
       <c r="D19" t="n">
-        <v>177.9333795144287</v>
+        <v>179.7531178422757</v>
       </c>
       <c r="E19" t="n">
         <v>122</v>
@@ -1123,6 +1179,9 @@
         <is>
           <t>B550M AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1136,7 +1195,7 @@
         <v>159.3975186826747</v>
       </c>
       <c r="D20" t="n">
-        <v>207.2053502463441</v>
+        <v>203.0262249808418</v>
       </c>
       <c r="E20" t="n">
         <v>135</v>
@@ -1159,6 +1218,9 @@
         <is>
           <t>B550M AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1172,7 +1234,7 @@
         <v>196.3757808917924</v>
       </c>
       <c r="D21" t="n">
-        <v>238.9099500998303</v>
+        <v>238.1121487921266</v>
       </c>
       <c r="E21" t="n">
         <v>116</v>
@@ -1195,6 +1257,9 @@
         <is>
           <t>B550M AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1320,7 +1385,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3047</t>
+          <t>3045</t>
         </is>
       </c>
     </row>
